--- a/server/public/parties.xlsx
+++ b/server/public/parties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syha/Podo/server/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7C4F73-AC16-BE43-8496-BB5D735470FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D02F93-CD9A-EB48-8C52-4463FBB5021E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{10E0EC23-40E6-F240-885C-9BE6D7ECD764}"/>
   </bookViews>
@@ -34,15 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
-  <si>
-    <t>s2n3l4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl1k43m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
   <si>
     <t>s2n3l5</t>
   </si>
@@ -424,6 +416,30 @@
   </si>
   <si>
     <t>sl89(21</t>
+  </si>
+  <si>
+    <t>s2n3l1</t>
+  </si>
+  <si>
+    <t>s2n3l2</t>
+  </si>
+  <si>
+    <t>s2n3l3</t>
+  </si>
+  <si>
+    <t>s2n3l4</t>
+  </si>
+  <si>
+    <t>dl1k40m</t>
+  </si>
+  <si>
+    <t>dl1k41m</t>
+  </si>
+  <si>
+    <t>dl1k42m</t>
+  </si>
+  <si>
+    <t>dl1k43m</t>
   </si>
 </sst>
 </file>
@@ -796,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C66FE0-2D3E-F242-92D6-CFD556E15758}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -812,129 +828,129 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2">
         <v>4</v>
       </c>
       <c r="F1" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2">
         <v>3</v>
       </c>
       <c r="H1" s="1">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="I1" s="1">
-        <v>44636</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="I2" s="1">
-        <v>44608</v>
+        <v>44696</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="I3" s="1">
-        <v>44820</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="I4" s="1">
-        <v>44697</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -946,30 +962,30 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
         <v>44547</v>
       </c>
       <c r="I5" s="1">
-        <v>44911</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -978,21 +994,21 @@
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="I6" s="1">
-        <v>44609</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1004,59 +1020,59 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="I7" s="1">
-        <v>44637</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="I8" s="1">
-        <v>44821</v>
+        <v>44697</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1065,21 +1081,21 @@
         <v>12</v>
       </c>
       <c r="H9" s="1">
-        <v>44549</v>
+        <v>44547</v>
       </c>
       <c r="I9" s="1">
-        <v>44913</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -1091,633 +1107,633 @@
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="I10" s="1">
-        <v>44883</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <v>4</v>
       </c>
       <c r="F11" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="I11" s="1">
-        <v>44852</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="I12" s="1">
-        <v>44791</v>
+        <v>44821</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H13" s="1">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="I13" s="1">
-        <v>44761</v>
+        <v>44913</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
       </c>
       <c r="F14" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="I14" s="1">
-        <v>44700</v>
+        <v>44883</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
       </c>
       <c r="E15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2">
         <v>4</v>
       </c>
       <c r="G15" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="I15" s="1">
-        <v>44670</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2">
         <v>6</v>
       </c>
       <c r="E16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
         <v>5</v>
       </c>
       <c r="G16" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H16" s="1">
-        <v>44551</v>
+        <v>44549</v>
       </c>
       <c r="I16" s="1">
-        <v>44732</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2">
         <v>7</v>
       </c>
       <c r="E17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="2">
         <v>6</v>
       </c>
       <c r="G17" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H17" s="1">
-        <v>44552</v>
+        <v>44550</v>
       </c>
       <c r="I17" s="1">
-        <v>44733</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2">
         <v>5</v>
       </c>
-      <c r="E18" s="2">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2">
-        <v>4</v>
-      </c>
-      <c r="G18" s="2">
-        <v>7</v>
-      </c>
       <c r="H18" s="1">
-        <v>44552</v>
+        <v>44550</v>
       </c>
       <c r="I18" s="1">
-        <v>44763</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="1">
-        <v>44552</v>
+        <v>44550</v>
       </c>
       <c r="I19" s="1">
-        <v>44613</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H20" s="1">
-        <v>44553</v>
+        <v>44551</v>
       </c>
       <c r="I20" s="1">
-        <v>44642</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G21" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H21" s="1">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="I21" s="1">
-        <v>44673</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="2">
         <v>7</v>
       </c>
       <c r="H22" s="1">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="I22" s="1">
-        <v>44764</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
         <v>5</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2">
-        <v>4</v>
-      </c>
-      <c r="F23" s="2">
-        <v>4</v>
-      </c>
       <c r="G23" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="I23" s="1">
-        <v>44826</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2">
         <v>4</v>
       </c>
       <c r="F24" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H24" s="1">
-        <v>44554</v>
+        <v>44553</v>
       </c>
       <c r="I24" s="1">
-        <v>44888</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="2">
         <v>4</v>
       </c>
       <c r="F25" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H25" s="1">
-        <v>44554</v>
+        <v>44553</v>
       </c>
       <c r="I25" s="1">
-        <v>44918</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2">
         <v>7</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="2">
-        <v>5</v>
-      </c>
-      <c r="E26" s="2">
-        <v>3</v>
-      </c>
-      <c r="F26" s="2">
-        <v>4</v>
-      </c>
-      <c r="G26" s="2">
-        <v>12</v>
-      </c>
       <c r="H26" s="1">
-        <v>44554</v>
+        <v>44553</v>
       </c>
       <c r="I26" s="1">
-        <v>44918</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2">
         <v>5</v>
       </c>
       <c r="E27" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2">
         <v>4</v>
       </c>
       <c r="G27" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H27" s="1">
-        <v>44555</v>
+        <v>44553</v>
       </c>
       <c r="I27" s="1">
-        <v>44889</v>
+        <v>44826</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="1">
-        <v>44555</v>
+        <v>44554</v>
       </c>
       <c r="I28" s="1">
-        <v>44919</v>
+        <v>44888</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E29" s="2">
         <v>4</v>
       </c>
       <c r="F29" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H29" s="1">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="I29" s="1">
-        <v>44706</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D30" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H30" s="1">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="I30" s="1">
-        <v>44737</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2">
         <v>3</v>
       </c>
       <c r="F31" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H31" s="1">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="I31" s="1">
-        <v>44645</v>
+        <v>44889</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
@@ -1729,59 +1745,59 @@
         <v>3</v>
       </c>
       <c r="G32" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H32" s="1">
-        <v>44557</v>
+        <v>44555</v>
       </c>
       <c r="I32" s="1">
-        <v>44646</v>
+        <v>44919</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
       </c>
       <c r="E33" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="2">
         <v>3</v>
       </c>
       <c r="G33" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H33" s="1">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="I33" s="1">
-        <v>44618</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
       </c>
       <c r="E34" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2">
         <v>3</v>
@@ -1790,27 +1806,27 @@
         <v>6</v>
       </c>
       <c r="H34" s="1">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="I34" s="1">
-        <v>44738</v>
+        <v>44737</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
       </c>
       <c r="E35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="2">
         <v>3</v>
@@ -1819,224 +1835,224 @@
         <v>3</v>
       </c>
       <c r="H35" s="1">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="I35" s="1">
-        <v>44646</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D36" s="2">
         <v>3</v>
       </c>
       <c r="E36" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="2">
         <v>3</v>
       </c>
       <c r="G36" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H36" s="1">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="I36" s="1">
-        <v>44800</v>
+        <v>44646</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D37" s="2">
         <v>3</v>
       </c>
       <c r="E37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" s="2">
         <v>3</v>
       </c>
       <c r="G37" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="I37" s="1">
-        <v>44831</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D38" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E38" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G38" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H38" s="1">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="I38" s="1">
-        <v>44647</v>
+        <v>44738</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H39" s="1">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="I39" s="1">
-        <v>44861</v>
+        <v>44646</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D40" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H40" s="1">
         <v>44558</v>
       </c>
       <c r="I40" s="1">
-        <v>44861</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" s="2">
         <v>4</v>
       </c>
       <c r="F41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H41" s="1">
         <v>44558</v>
       </c>
       <c r="I41" s="1">
-        <v>44769</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D42" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2">
         <v>4</v>
       </c>
       <c r="F42" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G42" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H42" s="1">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="I42" s="1">
-        <v>44770</v>
+        <v>44647</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
@@ -2048,111 +2064,111 @@
         <v>2</v>
       </c>
       <c r="G43" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H43" s="1">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="I43" s="1">
-        <v>44620</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
       </c>
       <c r="E44" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" s="2">
         <v>2</v>
       </c>
       <c r="G44" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H44" s="1">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="I44" s="1">
-        <v>44709</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="2">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+      <c r="G45" s="2">
         <v>7</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="2">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2">
-        <v>3</v>
-      </c>
-      <c r="F45" s="2">
-        <v>2</v>
-      </c>
-      <c r="G45" s="2">
-        <v>4</v>
-      </c>
       <c r="H45" s="1">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="I45" s="1">
-        <v>44679</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
       </c>
       <c r="E46" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="2">
         <v>2</v>
       </c>
       <c r="G46" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H46" s="1">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="I46" s="1">
-        <v>44741</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -2164,169 +2180,169 @@
         <v>2</v>
       </c>
       <c r="G47" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H47" s="1">
-        <v>44561</v>
+        <v>44559</v>
       </c>
       <c r="I47" s="1">
-        <v>44772</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
       </c>
       <c r="E48" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" s="2">
         <v>2</v>
       </c>
       <c r="G48" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H48" s="1">
-        <v>44561</v>
+        <v>44559</v>
       </c>
       <c r="I48" s="1">
-        <v>44803</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G49" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H49" s="1">
-        <v>44562</v>
+        <v>44559</v>
       </c>
       <c r="I49" s="1">
-        <v>44742</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E50" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" s="2">
         <v>6</v>
       </c>
       <c r="H50" s="1">
-        <v>44563</v>
+        <v>44560</v>
       </c>
       <c r="I50" s="1">
-        <v>44743</v>
+        <v>44741</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2">
         <v>4</v>
       </c>
       <c r="F51" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G51" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H51" s="1">
-        <v>44564</v>
+        <v>44561</v>
       </c>
       <c r="I51" s="1">
-        <v>44744</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D52" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G52" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H52" s="1">
-        <v>44565</v>
+        <v>44561</v>
       </c>
       <c r="I52" s="1">
-        <v>44745</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D53" s="2">
         <v>4</v>
@@ -2341,21 +2357,21 @@
         <v>6</v>
       </c>
       <c r="H53" s="1">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="I53" s="1">
-        <v>44746</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D54" s="2">
         <v>4</v>
@@ -2370,21 +2386,21 @@
         <v>6</v>
       </c>
       <c r="H54" s="1">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="I54" s="1">
-        <v>44747</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D55" s="2">
         <v>4</v>
@@ -2399,21 +2415,21 @@
         <v>6</v>
       </c>
       <c r="H55" s="1">
-        <v>44568</v>
+        <v>44564</v>
       </c>
       <c r="I55" s="1">
-        <v>44748</v>
+        <v>44744</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D56" s="2">
         <v>4</v>
@@ -2428,21 +2444,21 @@
         <v>6</v>
       </c>
       <c r="H56" s="1">
-        <v>44569</v>
+        <v>44565</v>
       </c>
       <c r="I56" s="1">
-        <v>44749</v>
+        <v>44745</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D57" s="2">
         <v>4</v>
@@ -2457,27 +2473,27 @@
         <v>6</v>
       </c>
       <c r="H57" s="1">
-        <v>44570</v>
+        <v>44566</v>
       </c>
       <c r="I57" s="1">
-        <v>44750</v>
+        <v>44746</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D58" s="2">
         <v>4</v>
       </c>
       <c r="E58" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="2">
         <v>4</v>
@@ -2486,160 +2502,276 @@
         <v>6</v>
       </c>
       <c r="H58" s="1">
-        <v>44571</v>
+        <v>44567</v>
       </c>
       <c r="I58" s="1">
-        <v>44751</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D59" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E59" s="2">
         <v>4</v>
       </c>
       <c r="F59" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G59" s="2">
         <v>6</v>
       </c>
       <c r="H59" s="1">
-        <v>44572</v>
+        <v>44568</v>
       </c>
       <c r="I59" s="1">
-        <v>44752</v>
+        <v>44748</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D60" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E60" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G60" s="2">
         <v>6</v>
       </c>
       <c r="H60" s="1">
-        <v>44573</v>
+        <v>44569</v>
       </c>
       <c r="I60" s="1">
-        <v>44753</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D61" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E61" s="2">
         <v>4</v>
       </c>
       <c r="F61" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G61" s="2">
         <v>6</v>
       </c>
       <c r="H61" s="1">
-        <v>44574</v>
+        <v>44570</v>
       </c>
       <c r="I61" s="1">
-        <v>44754</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D62" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E62" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G62" s="2">
         <v>6</v>
       </c>
       <c r="H62" s="1">
-        <v>44575</v>
+        <v>44571</v>
       </c>
       <c r="I62" s="1">
-        <v>44755</v>
+        <v>44751</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D63" s="2">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2">
+        <v>4</v>
+      </c>
+      <c r="F63" s="2">
+        <v>7</v>
+      </c>
+      <c r="G63" s="2">
+        <v>6</v>
+      </c>
+      <c r="H63" s="1">
+        <v>44572</v>
+      </c>
+      <c r="I63" s="1">
+        <v>44752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="2">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="2">
         <v>8</v>
       </c>
-      <c r="E63" s="2">
-        <v>3</v>
-      </c>
-      <c r="F63" s="2">
+      <c r="E64" s="2">
+        <v>4</v>
+      </c>
+      <c r="F64" s="2">
         <v>8</v>
       </c>
-      <c r="G63" s="2">
-        <v>6</v>
-      </c>
-      <c r="H63" s="1">
+      <c r="G64" s="2">
+        <v>6</v>
+      </c>
+      <c r="H64" s="1">
+        <v>44573</v>
+      </c>
+      <c r="I64" s="1">
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="2">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="2">
+        <v>8</v>
+      </c>
+      <c r="E65" s="2">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2">
+        <v>8</v>
+      </c>
+      <c r="G65" s="2">
+        <v>6</v>
+      </c>
+      <c r="H65" s="1">
+        <v>44574</v>
+      </c>
+      <c r="I65" s="1">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="2">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="2">
+        <v>7</v>
+      </c>
+      <c r="E66" s="2">
+        <v>4</v>
+      </c>
+      <c r="F66" s="2">
+        <v>7</v>
+      </c>
+      <c r="G66" s="2">
+        <v>6</v>
+      </c>
+      <c r="H66" s="1">
+        <v>44575</v>
+      </c>
+      <c r="I66" s="1">
+        <v>44755</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="2">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="2">
+        <v>8</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3</v>
+      </c>
+      <c r="F67" s="2">
+        <v>8</v>
+      </c>
+      <c r="G67" s="2">
+        <v>6</v>
+      </c>
+      <c r="H67" s="1">
         <v>44576</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I67" s="1">
         <v>44756</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:A27">
-    <sortCondition ref="A14:A27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:A29">
+    <sortCondition ref="A16:A29"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
